--- a/acervo.xlsx
+++ b/acervo.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecao\OneDrive\Documentos\PRODUTIVIDADE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1ED64-714C-45E8-9F85-49DC1A6BAF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$R$235</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -508,353 +517,347 @@
     <t>NATAL - 12ª VARA CRIMINAL</t>
   </si>
   <si>
+    <t>Grupo 15</t>
+  </si>
+  <si>
+    <t>Grupo 16</t>
+  </si>
+  <si>
+    <t>Grupo 17</t>
+  </si>
+  <si>
+    <t>Grupo 18</t>
+  </si>
+  <si>
+    <t>Grupo 19</t>
+  </si>
+  <si>
+    <t>NATAL - JUIZADO ESPECIAL CRIMINAL CENTRAL</t>
+  </si>
+  <si>
+    <t>Grupo 20</t>
+  </si>
+  <si>
+    <t>NATAL - 1ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>NATAL - 2ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>NATAL - 3ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>NATAL - 4ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>NATAL - 5ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>NATAL - 6ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>NATAL - 7ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>NATAL - 8ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>NATAL - 9ª VARA DE FAMÍLIA E SUCESSÕES</t>
+  </si>
+  <si>
+    <t>Grupo 21</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - VARA DA INFÂNCIA E JUVENTUDE</t>
+  </si>
+  <si>
+    <t>NATAL - 1ª VARA DA INFÂNCIA E JUVENTUDE</t>
+  </si>
+  <si>
+    <t>NATAL - 2ª VARA DA INFÂNCIA E JUVENTUDE</t>
+  </si>
+  <si>
+    <t>NATAL - 3ª VARA DA INFÂNCIA E JUVENTUDE</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - VARA DE INFÂNCIA, JUVENTUDE E DO IDOSO</t>
+  </si>
+  <si>
+    <t>Grupo 22</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 1ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 2ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 3ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 4ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 5ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 6ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - 1ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - 2ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - 3ª VARA CÍVEL</t>
+  </si>
+  <si>
+    <t>Grupo 23</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - 1ª VARA CRIMINAL</t>
+  </si>
+  <si>
+    <t>Grupo 24</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 1ª VARA CRIMINAL</t>
+  </si>
+  <si>
+    <t>Grupo 25</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 2ª VARA CRIMINAL</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 3ª VARA CRIMINAL</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - 2ª VARA CRIMINAL</t>
+  </si>
+  <si>
+    <t>Grupo 26</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - VARA DE EXECUÇÕES PENAIS</t>
+  </si>
+  <si>
+    <t>Grupo 27</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 1ª VARA DE FAMÍLIA</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 2ª VARA DE FAMÍLIA</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 3ª VARA DE FAMÍLIA</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - 1ª VARA DE FAMÍLIA</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - 2ª VARA DE FAMÍLIA</t>
+  </si>
+  <si>
+    <t>Grupo 28</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - VARA DO JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
+  </si>
+  <si>
+    <t>NATAL - 1º JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
+  </si>
+  <si>
+    <t>NATAL - 2º JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
+  </si>
+  <si>
+    <t>NATAL - 3º JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
+  </si>
+  <si>
+    <t>Grupo 29</t>
+  </si>
+  <si>
+    <t>NATAL - 1ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
+  </si>
+  <si>
+    <t>NATAL - 2ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
+  </si>
+  <si>
+    <t>NATAL - 3ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
+  </si>
+  <si>
+    <t>NATAL - 4ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
+  </si>
+  <si>
+    <t>NATAL - 5ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
+  </si>
+  <si>
+    <t>NATAL - 6ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
+  </si>
+  <si>
+    <t>Grupo 30</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 1ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 2ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>MOSSORÓ - 3ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 1ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 2ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 3ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 4ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 5ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 6ª VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>PARNAMIRIM - VARA DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>Grupo 31</t>
+  </si>
+  <si>
+    <t>NATAL - 1º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 2º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 3º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 4º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 5º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 6º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 7º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 8º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 9º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 10º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 11º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 12º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 13º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 14º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 15º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>NATAL - 16º JUIZADO ESPECIAL CÍVEL</t>
+  </si>
+  <si>
+    <t>Grupo 32</t>
+  </si>
+  <si>
+    <t>NATAL - 1º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 2º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 3º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 4º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 5º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>NATAL - 6º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>Grupo 33</t>
+  </si>
+  <si>
+    <t>NATAL - 1ª TURMA RECURSAL</t>
+  </si>
+  <si>
+    <t>NATAL - 2ª TURMA RECURSAL</t>
+  </si>
+  <si>
+    <t>NATAL - 3ª TURMA RECURSAL</t>
+  </si>
+  <si>
+    <t>Grupo 34</t>
+  </si>
+  <si>
+    <t>NATAL - CENTRAL DE AVALIAÇÃO E ARREMATAÇÃO</t>
+  </si>
+  <si>
+    <t>Grupo 35</t>
+  </si>
+  <si>
+    <t>GABINETE DO DESEMBARGADOR GILSON BARBOSA</t>
+  </si>
+  <si>
+    <t>GABINETE DO DESEMBARGADOR GLAUBER RÊGO</t>
+  </si>
+  <si>
+    <t>GABINETE DO DESEMBARGADOR SARAIVA SOBRINHO</t>
+  </si>
+  <si>
+    <t>Grupo 36</t>
+  </si>
+  <si>
+    <t>NATAL - 13ª VARA CRIMINAL</t>
+  </si>
+  <si>
+    <t>NATAL - 16ª VARA CRIMINAL</t>
+  </si>
+  <si>
     <t>NATAL - 14ª VARA CRIMINAL</t>
   </si>
   <si>
-    <t>Grupo 15</t>
-  </si>
-  <si>
     <t>NATAL - 15ª VARA CRIMINAL</t>
   </si>
   <si>
-    <t>Grupo 16</t>
-  </si>
-  <si>
-    <t>NATAL - 13ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>Grupo 17</t>
-  </si>
-  <si>
-    <t>NATAL - 16ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>Grupo 18</t>
-  </si>
-  <si>
-    <t>NATAL - 17ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>Grupo 19</t>
-  </si>
-  <si>
-    <t>NATAL - JUIZADO ESPECIAL CRIMINAL CENTRAL</t>
-  </si>
-  <si>
-    <t>Grupo 20</t>
-  </si>
-  <si>
-    <t>NATAL - 1ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>NATAL - 2ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>NATAL - 3ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>NATAL - 4ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>NATAL - 5ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>NATAL - 6ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>NATAL - 7ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>NATAL - 8ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>NATAL - 9ª VARA DE FAMÍLIA E SUCESSÕES</t>
-  </si>
-  <si>
-    <t>Grupo 21</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - VARA DA INFÂNCIA E JUVENTUDE</t>
-  </si>
-  <si>
-    <t>NATAL - 1ª VARA DA INFÂNCIA E JUVENTUDE</t>
-  </si>
-  <si>
-    <t>NATAL - 2ª VARA DA INFÂNCIA E JUVENTUDE</t>
-  </si>
-  <si>
-    <t>NATAL - 3ª VARA DA INFÂNCIA E JUVENTUDE</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - VARA DE INFÂNCIA, JUVENTUDE E DO IDOSO</t>
-  </si>
-  <si>
-    <t>Grupo 22</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 1ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 2ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 3ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 4ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 5ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 6ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - 1ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - 2ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - 3ª VARA CÍVEL</t>
-  </si>
-  <si>
-    <t>Grupo 23</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - 1ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>Grupo 24</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 1ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>Grupo 25</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 2ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 3ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - 2ª VARA CRIMINAL</t>
-  </si>
-  <si>
-    <t>Grupo 26</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - VARA DE EXECUÇÕES PENAIS</t>
-  </si>
-  <si>
-    <t>Grupo 27</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 1ª VARA DE FAMÍLIA</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 2ª VARA DE FAMÍLIA</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 3ª VARA DE FAMÍLIA</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - 1ª VARA DE FAMÍLIA</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - 2ª VARA DE FAMÍLIA</t>
-  </si>
-  <si>
-    <t>Grupo 28</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - VARA DO JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
-  </si>
-  <si>
-    <t>NATAL - 1º JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
-  </si>
-  <si>
-    <t>NATAL - 2º JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
-  </si>
-  <si>
-    <t>NATAL - 3º JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER</t>
-  </si>
-  <si>
-    <t>Grupo 29</t>
-  </si>
-  <si>
-    <t>NATAL - 1ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
-  </si>
-  <si>
-    <t>NATAL - 2ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
-  </si>
-  <si>
-    <t>NATAL - 3ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
-  </si>
-  <si>
-    <t>NATAL - 4ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
-  </si>
-  <si>
-    <t>NATAL - 5ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
-  </si>
-  <si>
-    <t>NATAL - 6ª VARA DE EXECUÇÃO FISCAL E TRIBUTÁRIA</t>
-  </si>
-  <si>
-    <t>Grupo 30</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 1ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 2ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>MOSSORÓ - 3ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 1ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 2ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 3ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 4ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 5ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 6ª VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>PARNAMIRIM - VARA DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>Grupo 31</t>
-  </si>
-  <si>
-    <t>NATAL - 1º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 2º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 3º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 4º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 5º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 6º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 7º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 8º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 9º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 10º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 11º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 12º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 13º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 14º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 15º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>NATAL - 16º JUIZADO ESPECIAL CÍVEL</t>
-  </si>
-  <si>
-    <t>Grupo 32</t>
-  </si>
-  <si>
-    <t>NATAL - 1º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 2º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 3º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 4º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 5º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>NATAL - 6º JUIZADO ESPECIAL DA FAZENDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>Grupo 33</t>
-  </si>
-  <si>
-    <t>NATAL - 1ª TURMA RECURSAL</t>
-  </si>
-  <si>
-    <t>NATAL - 2ª TURMA RECURSAL</t>
-  </si>
-  <si>
-    <t>NATAL - 3ª TURMA RECURSAL</t>
-  </si>
-  <si>
-    <t>Grupo 34</t>
-  </si>
-  <si>
-    <t>NATAL - CENTRAL DE AVALIAÇÃO E ARREMATAÇÃO</t>
-  </si>
-  <si>
-    <t>Grupo 35</t>
-  </si>
-  <si>
-    <t>GABINETE DO DESEMBARGADOR GILSON BARBOSA</t>
-  </si>
-  <si>
-    <t>GABINETE DO DESEMBARGADOR GLAUBER RÊGO</t>
-  </si>
-  <si>
-    <t>GABINETE DO DESEMBARGADOR SARAIVA SOBRINHO</t>
-  </si>
-  <si>
-    <t>Grupo 36</t>
+    <t>NATAL - 1ª VARA REGIONAL DE EXECUÇÃO PENAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,151 +873,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,194 +887,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1237,178 +911,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1429,61 +934,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
-    <cellStyle name="Observação" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
-    <cellStyle name="Título" xfId="16" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
-    <cellStyle name="Saída" xfId="27" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
-    <cellStyle name="Bom" xfId="31" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1741,26 +1202,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
     <col min="3" max="18" width="6" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:18">
+    <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9213,7 +8674,7 @@
         <v>162</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="C134" s="6">
         <v>928</v>
@@ -9266,10 +8727,10 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="C135" s="6">
         <v>1005</v>
@@ -9322,10 +8783,10 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="C136" s="6">
         <v>3644</v>
@@ -9378,10 +8839,10 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="C137" s="6">
         <v>1011</v>
@@ -9434,10 +8895,10 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="C138" s="6">
         <v>3760</v>
@@ -9490,10 +8951,10 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C139" s="6">
         <v>3889</v>
@@ -9546,10 +9007,10 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C140" s="6">
         <v>1356</v>
@@ -9602,10 +9063,10 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C141" s="6">
         <v>1365</v>
@@ -9658,10 +9119,10 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C142" s="6">
         <v>1279</v>
@@ -9714,10 +9175,10 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C143" s="6">
         <v>1627</v>
@@ -9770,10 +9231,10 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="C144" s="6">
         <v>1391</v>
@@ -9826,10 +9287,10 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C145" s="6">
         <v>1313</v>
@@ -9882,10 +9343,10 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C146" s="6">
         <v>2077</v>
@@ -9938,10 +9399,10 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C147" s="6">
         <v>1548</v>
@@ -9994,10 +9455,10 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C148" s="6">
         <v>1602</v>
@@ -10050,10 +9511,10 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C149" s="6">
         <v>754</v>
@@ -10106,10 +9567,10 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C150" s="6">
         <v>767</v>
@@ -10162,10 +9623,10 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C151" s="6">
         <v>724</v>
@@ -10218,10 +9679,10 @@
     </row>
     <row r="152" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C152" s="6">
         <v>584</v>
@@ -10274,10 +9735,10 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="C153" s="6">
         <v>923</v>
@@ -10330,10 +9791,10 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C154" s="6">
         <v>2431</v>
@@ -10386,10 +9847,10 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C155" s="6">
         <v>2099</v>
@@ -10442,10 +9903,10 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C156" s="6">
         <v>2086</v>
@@ -10498,10 +9959,10 @@
     </row>
     <row r="157" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C157" s="6">
         <v>2799</v>
@@ -10554,10 +10015,10 @@
     </row>
     <row r="158" spans="1:18">
       <c r="A158" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="C158" s="6">
         <v>2293</v>
@@ -10610,10 +10071,10 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C159" s="6">
         <v>2396</v>
@@ -10666,10 +10127,10 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C160" s="6">
         <v>2865</v>
@@ -10722,10 +10183,10 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C161" s="6">
         <v>3453</v>
@@ -10778,10 +10239,10 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C162" s="6">
         <v>3291</v>
@@ -10834,10 +10295,10 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C163" s="6">
         <v>2213</v>
@@ -10890,10 +10351,10 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C164" s="6">
         <v>1885</v>
@@ -10946,10 +10407,10 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C165" s="6">
         <v>1249</v>
@@ -11002,10 +10463,10 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C166" s="6">
         <v>1335</v>
@@ -11058,10 +10519,10 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C167" s="6">
         <v>3115</v>
@@ -11114,10 +10575,10 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C168" s="6">
         <v>2367</v>
@@ -11170,10 +10631,10 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C169" s="6">
         <v>1146</v>
@@ -11226,10 +10687,10 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C170" s="6">
         <v>1410</v>
@@ -11282,10 +10743,10 @@
     </row>
     <row r="171" spans="1:18">
       <c r="A171" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C171" s="6">
         <v>1141</v>
@@ -11338,10 +10799,10 @@
     </row>
     <row r="172" spans="1:18">
       <c r="A172" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C172" s="6">
         <v>2188</v>
@@ -11394,10 +10855,10 @@
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="C173" s="6">
         <v>3017</v>
@@ -11450,10 +10911,10 @@
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C174" s="6">
         <v>2530</v>
@@ -11506,10 +10967,10 @@
     </row>
     <row r="175" spans="1:18">
       <c r="A175" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C175" s="6">
         <v>2483</v>
@@ -11562,10 +11023,10 @@
     </row>
     <row r="176" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C176" s="6">
         <v>2691</v>
@@ -11618,10 +11079,10 @@
     </row>
     <row r="177" spans="1:18">
       <c r="A177" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C177" s="6">
         <v>2019</v>
@@ -11674,10 +11135,10 @@
     </row>
     <row r="178" spans="1:18">
       <c r="A178" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="C178" s="6">
         <v>2983</v>
@@ -11730,10 +11191,10 @@
     </row>
     <row r="179" spans="1:18">
       <c r="A179" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C179" s="6">
         <v>15104</v>
@@ -11786,10 +11247,10 @@
     </row>
     <row r="180" spans="1:18">
       <c r="A180" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C180" s="6">
         <v>15679</v>
@@ -11842,10 +11303,10 @@
     </row>
     <row r="181" spans="1:18">
       <c r="A181" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C181" s="6">
         <v>17493</v>
@@ -11898,10 +11359,10 @@
     </row>
     <row r="182" spans="1:18">
       <c r="A182" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C182" s="6">
         <v>17260</v>
@@ -11954,10 +11415,10 @@
     </row>
     <row r="183" spans="1:18">
       <c r="A183" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="C183" s="6">
         <v>15249</v>
@@ -12010,10 +11471,10 @@
     </row>
     <row r="184" spans="1:18">
       <c r="A184" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C184" s="6">
         <v>18434</v>
@@ -12066,10 +11527,10 @@
     </row>
     <row r="185" spans="1:18">
       <c r="A185" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C185" s="6">
         <v>4156</v>
@@ -12122,10 +11583,10 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C186" s="6">
         <v>6825</v>
@@ -12178,10 +11639,10 @@
     </row>
     <row r="187" spans="1:18">
       <c r="A187" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C187" s="6">
         <v>7308</v>
@@ -12234,10 +11695,10 @@
     </row>
     <row r="188" spans="1:18">
       <c r="A188" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C188" s="6">
         <v>3293</v>
@@ -12290,10 +11751,10 @@
     </row>
     <row r="189" spans="1:18">
       <c r="A189" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C189" s="6">
         <v>7996</v>
@@ -12346,10 +11807,10 @@
     </row>
     <row r="190" spans="1:18">
       <c r="A190" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C190" s="6">
         <v>6707</v>
@@ -12402,10 +11863,10 @@
     </row>
     <row r="191" spans="1:18">
       <c r="A191" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C191" s="6">
         <v>7089</v>
@@ -12458,10 +11919,10 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C192" s="6">
         <v>5926</v>
@@ -12514,10 +11975,10 @@
     </row>
     <row r="193" spans="1:18">
       <c r="A193" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C193" s="6">
         <v>4253</v>
@@ -12570,10 +12031,10 @@
     </row>
     <row r="194" spans="1:18">
       <c r="A194" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C194" s="6">
         <v>4779</v>
@@ -12626,10 +12087,10 @@
     </row>
     <row r="195" spans="1:18">
       <c r="A195" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C195" s="6">
         <v>1047</v>
@@ -12682,10 +12143,10 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C196" s="6">
         <v>868</v>
@@ -12738,10 +12199,10 @@
     </row>
     <row r="197" spans="1:18">
       <c r="A197" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C197" s="6">
         <v>1500</v>
@@ -12794,10 +12255,10 @@
     </row>
     <row r="198" spans="1:18">
       <c r="A198" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C198" s="6">
         <v>2666</v>
@@ -12850,10 +12311,10 @@
     </row>
     <row r="199" spans="1:18">
       <c r="A199" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="C199" s="6">
         <v>915</v>
@@ -12906,10 +12367,10 @@
     </row>
     <row r="200" spans="1:18">
       <c r="A200" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C200" s="6">
         <v>837</v>
@@ -12962,10 +12423,10 @@
     </row>
     <row r="201" spans="1:18">
       <c r="A201" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C201" s="6">
         <v>1406</v>
@@ -13018,10 +12479,10 @@
     </row>
     <row r="202" spans="1:18">
       <c r="A202" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C202" s="6">
         <v>1079</v>
@@ -13074,10 +12535,10 @@
     </row>
     <row r="203" spans="1:18">
       <c r="A203" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C203" s="6">
         <v>1055</v>
@@ -13130,10 +12591,10 @@
     </row>
     <row r="204" spans="1:18">
       <c r="A204" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C204" s="6">
         <v>788</v>
@@ -13186,10 +12647,10 @@
     </row>
     <row r="205" spans="1:18">
       <c r="A205" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C205" s="6">
         <v>1871</v>
@@ -13242,10 +12703,10 @@
     </row>
     <row r="206" spans="1:18">
       <c r="A206" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C206" s="6">
         <v>1290</v>
@@ -13298,10 +12759,10 @@
     </row>
     <row r="207" spans="1:18">
       <c r="A207" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C207" s="6">
         <v>1688</v>
@@ -13354,10 +12815,10 @@
     </row>
     <row r="208" spans="1:18">
       <c r="A208" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C208" s="6">
         <v>1267</v>
@@ -13410,10 +12871,10 @@
     </row>
     <row r="209" spans="1:18">
       <c r="A209" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C209" s="6">
         <v>1805</v>
@@ -13466,10 +12927,10 @@
     </row>
     <row r="210" spans="1:18">
       <c r="A210" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C210" s="6">
         <v>1294</v>
@@ -13522,10 +12983,10 @@
     </row>
     <row r="211" spans="1:18">
       <c r="A211" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C211" s="6">
         <v>6294</v>
@@ -13578,10 +13039,10 @@
     </row>
     <row r="212" spans="1:18">
       <c r="A212" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C212" s="6">
         <v>5829</v>
@@ -13634,10 +13095,10 @@
     </row>
     <row r="213" spans="1:18">
       <c r="A213" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C213" s="6">
         <v>6235</v>
@@ -13690,10 +13151,10 @@
     </row>
     <row r="214" spans="1:18">
       <c r="A214" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C214" s="6">
         <v>4982</v>
@@ -13746,10 +13207,10 @@
     </row>
     <row r="215" spans="1:18">
       <c r="A215" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="C215" s="6">
         <v>6437</v>
@@ -13802,10 +13263,10 @@
     </row>
     <row r="216" spans="1:18">
       <c r="A216" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C216" s="6">
         <v>4086</v>
@@ -13858,10 +13319,10 @@
     </row>
     <row r="217" spans="1:18">
       <c r="A217" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C217" s="6">
         <v>0</v>
@@ -13900,10 +13361,10 @@
     </row>
     <row r="218" spans="1:18">
       <c r="A218" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C218" s="6">
         <v>0</v>
@@ -13942,10 +13403,10 @@
     </row>
     <row r="219" spans="1:18">
       <c r="A219" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C219" s="6">
         <v>0</v>
@@ -13984,10 +13445,10 @@
     </row>
     <row r="220" spans="1:18">
       <c r="A220" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C220" s="6">
         <v>1726</v>
@@ -14040,10 +13501,10 @@
     </row>
     <row r="221" spans="1:18">
       <c r="A221" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C221" s="6">
         <v>0</v>
@@ -14082,10 +13543,10 @@
     </row>
     <row r="222" spans="1:18">
       <c r="A222" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C222" s="6">
         <v>0</v>
@@ -14124,10 +13585,10 @@
     </row>
     <row r="223" spans="1:18">
       <c r="A223" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C223" s="6">
         <v>0</v>
@@ -14166,10 +13627,10 @@
     </row>
     <row r="224" spans="1:18">
       <c r="A224" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C224" s="6">
         <v>0</v>
@@ -14208,10 +13669,10 @@
     </row>
     <row r="225" spans="1:18">
       <c r="A225" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C225" s="6">
         <v>0</v>
@@ -14250,10 +13711,10 @@
     </row>
     <row r="226" spans="1:18">
       <c r="A226" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C226" s="6">
         <v>0</v>
@@ -14292,10 +13753,10 @@
     </row>
     <row r="227" spans="1:18">
       <c r="A227" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C227" s="6">
         <v>0</v>
@@ -14334,10 +13795,10 @@
     </row>
     <row r="228" spans="1:18">
       <c r="A228" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C228" s="6">
         <v>0</v>
@@ -14376,10 +13837,10 @@
     </row>
     <row r="229" spans="1:18">
       <c r="A229" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C229" s="6">
         <v>0</v>
@@ -14418,10 +13879,10 @@
     </row>
     <row r="230" spans="1:18">
       <c r="A230" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C230" s="6">
         <v>0</v>
@@ -14460,10 +13921,10 @@
     </row>
     <row r="231" spans="1:18">
       <c r="A231" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C231" s="6">
         <v>0</v>
@@ -14502,10 +13963,10 @@
     </row>
     <row r="232" spans="1:18">
       <c r="A232" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C232" s="6">
         <v>0</v>
@@ -14544,10 +14005,10 @@
     </row>
     <row r="233" spans="1:18">
       <c r="A233" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C233" s="6">
         <v>0</v>
@@ -14586,10 +14047,10 @@
     </row>
     <row r="234" spans="1:18">
       <c r="A234" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C234" s="6">
         <v>0</v>
@@ -14628,10 +14089,10 @@
     </row>
     <row r="235" spans="1:18">
       <c r="A235" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C235" s="6">
         <v>0</v>
@@ -14669,7 +14130,7 @@
       <c r="R235" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <headerFooter/>
+  <autoFilter ref="A1:R235" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>